--- a/Documentacion/diagrama de Gannt.xlsx
+++ b/Documentacion/diagrama de Gannt.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="1200" windowWidth="28800" windowHeight="14130"/>
+    <workbookView xWindow="0" yWindow="1800" windowWidth="28800" windowHeight="14130"/>
   </bookViews>
   <sheets>
     <sheet name="proyecto" sheetId="1" r:id="rId1"/>
@@ -1122,7 +1122,7 @@
   <dimension ref="A2:BQ21"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="J23" sqref="J23"/>
+      <selection activeCell="G22" sqref="G22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="2.75" defaultRowHeight="17.25" x14ac:dyDescent="0.3"/>
@@ -1548,7 +1548,7 @@
         <v>1</v>
       </c>
       <c r="F11" s="13">
-        <v>0</v>
+        <v>0.3</v>
       </c>
       <c r="G11" s="14">
         <v>0</v>
@@ -1590,7 +1590,7 @@
         <v>1</v>
       </c>
       <c r="F13" s="13">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="G13" s="14">
         <v>0</v>
@@ -1611,7 +1611,7 @@
         <v>1</v>
       </c>
       <c r="F14" s="13">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="G14" s="14">
         <v>0</v>
@@ -1653,7 +1653,7 @@
         <v>0</v>
       </c>
       <c r="F16" s="13">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G16" s="14">
         <v>0</v>
@@ -1674,7 +1674,7 @@
         <v>0</v>
       </c>
       <c r="F17" s="13">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G17" s="14">
         <v>0</v>
@@ -1748,7 +1748,7 @@
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.45" right="0.45" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
-  <pageSetup scale="42" fitToHeight="0" orientation="landscape" r:id="rId1"/>
+  <pageSetup scale="44" fitToHeight="0" orientation="landscape" r:id="rId1"/>
   <drawing r:id="rId2"/>
   <legacyDrawing r:id="rId3"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
